--- a/gamedata/mt/stage.xlsx
+++ b/gamedata/mt/stage.xlsx
@@ -410,6 +410,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
@@ -424,7 +427,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>10010|20000</v>
+        <v>10010|20000|10001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
